--- a/librelink/Rik Activity 2019.xlsx
+++ b/librelink/Rik Activity 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0A9802B7-B5C7-7743-ACE5-1C239ACC16D3}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0E2459E2-D44D-664D-A164-4C905763F99B}"/>
   <bookViews>
-    <workbookView xWindow="21140" yWindow="3540" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
+    <workbookView xWindow="3100" yWindow="1100" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="126">
   <si>
     <t>Start</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Coffee w/ condensed milk (1TBS)</t>
   </si>
   <si>
-    <t>Pasta mushroom chicken</t>
-  </si>
-  <si>
     <t>Oatmeal w/butter</t>
   </si>
   <si>
@@ -358,6 +355,60 @@
   </si>
   <si>
     <t>CBD</t>
+  </si>
+  <si>
+    <t>Pork tamale</t>
+  </si>
+  <si>
+    <t>Coffee w/milk</t>
+  </si>
+  <si>
+    <t>Kombucha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food </t>
+  </si>
+  <si>
+    <t>Beans w/ham</t>
+  </si>
+  <si>
+    <t>Tofu and coconut rice</t>
+  </si>
+  <si>
+    <t>Grapefruit kefir smoothie</t>
+  </si>
+  <si>
+    <t>Royal milk tea</t>
+  </si>
+  <si>
+    <t>Pork loin, cabbage</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Coconut Shrimp and rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish + bread </t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Pork loin</t>
+  </si>
+  <si>
+    <t>Pasta (chicken mushroom)</t>
+  </si>
+  <si>
+    <t>Beer (empty stomach)</t>
+  </si>
+  <si>
+    <t>Nuts + banana</t>
   </si>
 </sst>
 </file>
@@ -414,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -481,6 +532,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,16 +579,57 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
     </dxf>
@@ -524,10 +647,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:D107" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D107" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{378B7070-ADA2-F840-857A-A5C12E2181D6}" name="Start" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{50BA6A11-7F67-3245-A885-F61A29E0428D}" name="End"/>
+    <tableColumn id="3" xr3:uid="{D6295B2A-B818-864C-A5EA-D02EA76F9CB4}" name="Activity"/>
+    <tableColumn id="4" xr3:uid="{33236412-F754-E04E-84A6-91EAEF0494F1}" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2567BDC0-A04E-5C4C-9AAA-4EA175B1283D}" name="Table1" displayName="Table1" ref="A1:D135" totalsRowShown="0">
   <autoFilter ref="A1:D135" xr:uid="{92650681-87AE-8843-B8AE-73B4F45498A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{55D453C5-1F86-C540-A3D0-A77F75750115}" name="Start" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{55D453C5-1F86-C540-A3D0-A77F75750115}" name="Start" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9BA030C4-3502-B04E-A7B4-D67CDCE1CA4A}" name="End"/>
     <tableColumn id="3" xr3:uid="{2DCF4665-43E4-8447-9BD7-E4199779D3F7}" name="Activity"/>
     <tableColumn id="4" xr3:uid="{F2A2E482-4E7A-E74E-87D6-3481CC8E6ECA}" name="Comment"/>
@@ -833,29 +969,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BBD169-48D2-8F48-8801-52F9E2F03988}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -880,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,84 +1028,84 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>43474.541666666664</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>43474.459027777775</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>43474.459027777775</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>43474.500694444447</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>43474.500694444447</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>43474.646527777775</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>43474.646527777775</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>43474.730555555558</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>43474.730555555558</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>43474.824305555558</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>43474.824305555558</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>43474.825694444444</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>43474.825694444444</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -992,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,22 +1151,22 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>43475.885416666664</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>43476.158333333333</v>
       </c>
       <c r="C17" t="s">
@@ -1040,18 +1177,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>43476.340277777781</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>43475.972222222219</v>
       </c>
       <c r="B19" s="1">
@@ -1069,18 +1206,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>43476.381944444445</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>43476.381944444445</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1204,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1270,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1336,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,11 +1572,608 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43481.552083333336</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43481.770833333336</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43481.9375</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43482.229166666664</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43481.916666666664</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43482.166666666664</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43482.120138888888</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43482.253472222219</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43482.361111111109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43482.333333333336</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43482.354166666664</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43482.506944444445</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43482.59375</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43482.770833333336</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43482.8125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43482.895833333336</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43482.9375</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43483.208333333336</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43483.074305555558</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43483.188888888886</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43483.25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43483.354166666664</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43483.552083333336</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43483.729166666664</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43483.770833333336</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43483.916666666664</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43484.25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43484.142361111109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43484.191666666666</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43484.291666666664</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43484.354166666664</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43484.611111111109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43484.8125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43484.916666666664</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43485.25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43485.3125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43485.520833333336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43485.59375</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43485.625</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43485.652083333334</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43485.770833333336</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43485.8125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43485.9375</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43486.25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43486.270833333336</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43486.184027777781</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43486.84652777778</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43486.9375</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43487.229166666664</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43487.105555555558</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43486.76458333333</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43486.647222222222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43486.510416666664</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43487.25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43487.395833333336</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43487.510416666664</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43487.734722222223</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43487.774305555555</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43487.896527777775</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43487.916666666664</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43488.270833333336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43488.28125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43488.388888888891</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1447,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D25C31-5891-F344-AFA8-EA292900C63D}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1637,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2399,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,7 +3199,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2501,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2523,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2534,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2545,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2623,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2660,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2685,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2773,7 +3507,7 @@
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2784,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2795,7 +3529,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2806,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,7 +3551,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,7 +3584,7 @@
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2861,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2883,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2949,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -2982,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/librelink/Rik Activity 2019.xlsx
+++ b/librelink/Rik Activity 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0E2459E2-D44D-664D-A164-4C905763F99B}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B7F3B2AD-81C1-B141-9192-42CAF6C401AC}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1100" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
+    <workbookView xWindow="6040" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
   <si>
     <t>Start</t>
   </si>
@@ -409,6 +410,60 @@
   </si>
   <si>
     <t>Nuts + banana</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Fiber, nuts</t>
+  </si>
+  <si>
+    <t>Veg Stirfry + rice</t>
+  </si>
+  <si>
+    <t>Pizza, pork, salad</t>
+  </si>
+  <si>
+    <t>Rice, stirfry</t>
+  </si>
+  <si>
+    <t>Clam Chowder</t>
+  </si>
+  <si>
+    <t>Blood donation</t>
+  </si>
+  <si>
+    <t>Corn Chips (75g)</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Rice + Eggs</t>
+  </si>
+  <si>
+    <t>Pork ribs+beans+cornbread</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Kombucha + CBD</t>
+  </si>
+  <si>
+    <t>Kale salad + tofu</t>
+  </si>
+  <si>
+    <t>Pasta (pesto)</t>
+  </si>
+  <si>
+    <t>Cheese-stuffed chicken</t>
+  </si>
+  <si>
+    <t>Egg + cornbread</t>
+  </si>
+  <si>
+    <t>Beans + cornbread</t>
   </si>
 </sst>
 </file>
@@ -567,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -578,17 +633,48 @@
     <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -613,26 +699,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -647,13 +713,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:D107" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D107" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378B7070-ADA2-F840-857A-A5C12E2181D6}" name="Start" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:E148" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:E148" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
+    <sortCondition ref="A1:A123"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{378B7070-ADA2-F840-857A-A5C12E2181D6}" name="Start" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{50BA6A11-7F67-3245-A885-F61A29E0428D}" name="End"/>
     <tableColumn id="3" xr3:uid="{D6295B2A-B818-864C-A5EA-D02EA76F9CB4}" name="Activity"/>
     <tableColumn id="4" xr3:uid="{33236412-F754-E04E-84A6-91EAEF0494F1}" name="Comment"/>
+    <tableColumn id="5" xr3:uid="{B905F758-D3B9-8E4E-850B-CC5149D10893}" name="Z" dataDxfId="1">
+      <calculatedColumnFormula>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,7 +735,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2567BDC0-A04E-5C4C-9AAA-4EA175B1283D}" name="Table1" displayName="Table1" ref="A1:D135" totalsRowShown="0">
   <autoFilter ref="A1:D135" xr:uid="{92650681-87AE-8843-B8AE-73B4F45498A6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{55D453C5-1F86-C540-A3D0-A77F75750115}" name="Start" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{55D453C5-1F86-C540-A3D0-A77F75750115}" name="Start" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9BA030C4-3502-B04E-A7B4-D67CDCE1CA4A}" name="End"/>
     <tableColumn id="3" xr3:uid="{2DCF4665-43E4-8447-9BD7-E4199779D3F7}" name="Activity"/>
     <tableColumn id="4" xr3:uid="{F2A2E482-4E7A-E74E-87D6-3481CC8E6ECA}" name="Comment"/>
@@ -969,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BBD169-48D2-8F48-8801-52F9E2F03988}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,133 +1054,178 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="E1" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>43474.459027777775</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>43474.500694444447</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>43474.541666666664</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>43474.646527777775</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>43474.730555555558</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>43474.756944444445</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>43474.798611111109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>43474.824305555558</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>43474.825694444444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>43474.9375</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B11" s="17">
         <v>43475.208333333336</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>43474.756944444445</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>43474.798611111109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>43474.541666666664</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>43474.459027777775</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>43474.500694444447</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>43474.646527777775</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>43474.730555555558</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>43474.824305555558</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>43474.825694444444</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="21"/>
+      <c r="E11" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.5000000000582077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>43475.21875</v>
       </c>
@@ -1119,8 +1236,12 @@
       <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>43475.298611111109</v>
       </c>
@@ -1131,8 +1252,12 @@
       <c r="D13" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>43475.478472222225</v>
       </c>
@@ -1142,8 +1267,12 @@
       <c r="D14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>43475.873611111114</v>
       </c>
@@ -1153,9 +1282,13 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="E15" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>43475.885416666664</v>
       </c>
       <c r="C16" t="s">
@@ -1164,41 +1297,57 @@
       <c r="D16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="E16" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>43475.972222222219</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43476.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.6666666667442769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>43476.158333333333</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="E18" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>43476.340277777781</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>43475.972222222219</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43476.25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43476.378472222219</v>
       </c>
@@ -1208,9 +1357,13 @@
       <c r="D20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="E20" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>43476.381944444445</v>
       </c>
       <c r="C21" t="s">
@@ -1219,8 +1372,12 @@
       <c r="D21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43476.489583333336</v>
       </c>
@@ -1230,8 +1387,12 @@
       <c r="D22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43476.631944444445</v>
       </c>
@@ -1241,8 +1402,12 @@
       <c r="D23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43476.659722222219</v>
       </c>
@@ -1252,8 +1417,12 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43476.799305555556</v>
       </c>
@@ -1263,8 +1432,12 @@
       <c r="D25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43476.8125</v>
       </c>
@@ -1274,8 +1447,12 @@
       <c r="D26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43476.916666666664</v>
       </c>
@@ -1285,55 +1462,75 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
+        <v>43477.181250000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>43477.25</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43477.181250000001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
+        <v>43477.493055555555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>43477.510416666664</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>43477.520833333336</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43477.493055555555</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43477.666666666664</v>
       </c>
@@ -1343,8 +1540,12 @@
       <c r="D32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43477.75</v>
       </c>
@@ -1354,8 +1555,12 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43477.916666666664</v>
       </c>
@@ -1365,8 +1570,12 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.0000000001164153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43478.229166666664</v>
       </c>
@@ -1376,8 +1585,12 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43478.42083333333</v>
       </c>
@@ -1387,8 +1600,12 @@
       <c r="D36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43478.524305555555</v>
       </c>
@@ -1398,8 +1615,12 @@
       <c r="D37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43478.791666666664</v>
       </c>
@@ -1409,8 +1630,12 @@
       <c r="D38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43478.916666666664</v>
       </c>
@@ -1420,8 +1645,12 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43479.239583333336</v>
       </c>
@@ -1431,8 +1660,12 @@
       <c r="D40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43479.427083333336</v>
       </c>
@@ -1442,8 +1675,12 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43479.482638888891</v>
       </c>
@@ -1453,8 +1690,12 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43479.520833333336</v>
       </c>
@@ -1464,8 +1705,12 @@
       <c r="D43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43479.78125</v>
       </c>
@@ -1475,8 +1720,12 @@
       <c r="D44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43479.916666666664</v>
       </c>
@@ -1486,8 +1735,12 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43480.25</v>
       </c>
@@ -1497,8 +1750,12 @@
       <c r="D46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43480.291666666664</v>
       </c>
@@ -1508,8 +1765,12 @@
       <c r="D47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43480.53125</v>
       </c>
@@ -1519,8 +1780,12 @@
       <c r="D48" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43480.784722222219</v>
       </c>
@@ -1530,52 +1795,72 @@
       <c r="D49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
+        <v>43480.875</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>43480.909722222219</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="1">
         <v>43481.25</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="E51" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.1666666667442769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>43481.128472222219</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="E52" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>43481.260416666664</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>43480.875</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43481.552083333336</v>
       </c>
@@ -1585,8 +1870,12 @@
       <c r="D54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43481.770833333336</v>
       </c>
@@ -1596,32 +1885,44 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
+        <v>43481.916666666664</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>43481.9375</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <v>43482.229166666664</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>43481.916666666664</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.9999999999417923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43482.166666666664</v>
+        <v>43482.120138888888</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -1629,10 +1930,14 @@
       <c r="D58" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43482.120138888888</v>
+        <v>43482.166666666664</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -1640,8 +1945,12 @@
       <c r="D59" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43482.253472222219</v>
       </c>
@@ -1651,30 +1960,42 @@
       <c r="D60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
+        <v>43482.333333333336</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43482.354166666664</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>43482.361111111109</v>
       </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43482.333333333336</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43482.354166666664</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43482.506944444445</v>
       </c>
@@ -1684,8 +2005,12 @@
       <c r="D63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43482.59375</v>
       </c>
@@ -1695,8 +2020,12 @@
       <c r="D64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43482.770833333336</v>
       </c>
@@ -1706,8 +2035,12 @@
       <c r="D65" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43482.8125</v>
       </c>
@@ -1717,8 +2050,12 @@
       <c r="D66" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43482.895833333336</v>
       </c>
@@ -1728,8 +2065,12 @@
       <c r="D67" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43482.9375</v>
       </c>
@@ -1739,8 +2080,12 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.5000000000582077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43483.074305555558</v>
       </c>
@@ -1750,8 +2095,12 @@
       <c r="D69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43483.188888888886</v>
       </c>
@@ -1761,8 +2110,12 @@
       <c r="D70" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43483.25</v>
       </c>
@@ -1772,8 +2125,12 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43483.354166666664</v>
       </c>
@@ -1783,8 +2140,12 @@
       <c r="D72" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43483.552083333336</v>
       </c>
@@ -1794,8 +2155,12 @@
       <c r="D73" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43483.729166666664</v>
       </c>
@@ -1805,8 +2170,12 @@
       <c r="D74" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43483.770833333336</v>
       </c>
@@ -1816,8 +2185,12 @@
       <c r="D75" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43483.916666666664</v>
       </c>
@@ -1827,8 +2200,12 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.0000000000582077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43484.142361111109</v>
       </c>
@@ -1838,8 +2215,12 @@
       <c r="D77" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43484.191666666666</v>
       </c>
@@ -1849,8 +2230,12 @@
       <c r="D78" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43484.291666666664</v>
       </c>
@@ -1860,8 +2245,12 @@
       <c r="D79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43484.354166666664</v>
       </c>
@@ -1871,8 +2260,12 @@
       <c r="D80" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43484.611111111109</v>
       </c>
@@ -1882,8 +2275,12 @@
       <c r="D81" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43484.8125</v>
       </c>
@@ -1893,8 +2290,12 @@
       <c r="D82" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43484.916666666664</v>
       </c>
@@ -1904,8 +2305,12 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.0000000000582077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43485.3125</v>
       </c>
@@ -1915,8 +2320,12 @@
       <c r="D84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43485.520833333336</v>
       </c>
@@ -1926,8 +2335,12 @@
       <c r="D85" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43485.59375</v>
       </c>
@@ -1937,8 +2350,12 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43485.652083333334</v>
       </c>
@@ -1948,8 +2365,12 @@
       <c r="D87" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43485.770833333336</v>
       </c>
@@ -1959,8 +2380,12 @@
       <c r="D88" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43485.8125</v>
       </c>
@@ -1970,8 +2395,12 @@
       <c r="D89" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43485.9375</v>
       </c>
@@ -1981,96 +2410,132 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
+        <v>43486.184027777781</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>43486.270833333336</v>
       </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>43486.184027777781</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E92" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43486.510416666664</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43486.647222222222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43486.76458333333</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43486.84652777778</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43486.9375</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43487.229166666664</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.9999999999417923</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43487.105555555558</v>
+      </c>
+      <c r="C98" t="s">
         <v>30</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D98" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43486.84652777778</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>43486.9375</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43487.229166666664</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>43487.105555555558</v>
-      </c>
-      <c r="C95" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43486.76458333333</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>43486.647222222222</v>
-      </c>
-      <c r="C97" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43486.510416666664</v>
-      </c>
-      <c r="C98" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43487.25</v>
       </c>
@@ -2080,8 +2545,12 @@
       <c r="D99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43487.395833333336</v>
       </c>
@@ -2091,8 +2560,12 @@
       <c r="D100" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43487.510416666664</v>
       </c>
@@ -2102,8 +2575,12 @@
       <c r="D101" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43487.734722222223</v>
       </c>
@@ -2113,8 +2590,12 @@
       <c r="D102" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43487.774305555555</v>
       </c>
@@ -2124,8 +2605,12 @@
       <c r="D103" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43487.896527777775</v>
       </c>
@@ -2135,8 +2620,12 @@
       <c r="D104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43487.916666666664</v>
       </c>
@@ -2146,8 +2635,12 @@
       <c r="C105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.5000000001164153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43488.28125</v>
       </c>
@@ -2157,8 +2650,12 @@
       <c r="D106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43488.388888888891</v>
       </c>
@@ -2167,6 +2664,625 @@
       </c>
       <c r="D107" t="s">
         <v>125</v>
+      </c>
+      <c r="E107" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43546.947222222225</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43547.219444444447</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.5333333333255723</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43547.918749999997</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43548.210416666669</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.0000000001164153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43548.886458333334</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43549.238888888889</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.4583333333139308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43549.442361111112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43550.543749999997</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43549.75</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43550.754861111112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43549.770833333336</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43549.893182870372</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43550.238194444442</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.2802777776960284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43550.270833333336</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43550.385416666664</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43550.919282407405</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43551.241666666669</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.7372222223202698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43551.25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43551.375</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43551.475694444445</v>
+      </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43551.523611111108</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43550.781944444447</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43551.700694444444</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43551.769444444442</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43551.791666666664</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43551.931111111109</v>
+      </c>
+      <c r="B128" s="1">
+        <v>43552.206250000003</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.6033333334489726</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43552.229166666664</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43552.3125</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43552.921296296299</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43553.206944444442</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.8555555554339662</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43552.802083333336</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43552.833333333336</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43552.53125</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43553.243055555555</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43553.925902777781</v>
+      </c>
+      <c r="B136" s="1">
+        <v>43554.180555555555</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.1116666665766388</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43554.229166666664</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43553.643055555556</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43553.75277777778</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43553.836111111108</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43553.479166666664</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43554.815972222219</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43554.92428240741</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43555.243055555555</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.6505555554758757</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43554.802777777775</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43554.303472222222</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>142</v>
+      </c>
+      <c r="E145" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43554.520138888889</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43555.284722222219</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43554.708333333336</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>131</v>
+      </c>
+      <c r="E148" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
       </c>
     </row>
   </sheetData>

--- a/librelink/Rik Activity 2019.xlsx
+++ b/librelink/Rik Activity 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B7F3B2AD-81C1-B141-9192-42CAF6C401AC}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{A1AD52F5-5758-0A44-8A5A-0AE3A9C1C771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FB7F0A5D-EA00-E046-B8C5-D0305AE57D42}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
+    <workbookView xWindow="7060" yWindow="1780" windowWidth="27640" windowHeight="16940" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="146">
   <si>
     <t>Start</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>Beans + cornbread</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Chicken, coconut rice</t>
   </si>
 </sst>
 </file>
@@ -713,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:E148" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E148" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:E153" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:E153" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
     <sortCondition ref="A1:A123"/>
   </sortState>
@@ -1041,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BBD169-48D2-8F48-8801-52F9E2F03988}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,6 +3287,81 @@
         <v>131</v>
       </c>
       <c r="E148" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43555.456250000003</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>144</v>
+      </c>
+      <c r="E149" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43555.506944444445</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43555.791666666664</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>145</v>
+      </c>
+      <c r="E151" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43555.913263888891</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43556.236111111109</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.7483333332347684</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43556.270833333336</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
         <v>NA</v>
       </c>
